--- a/biology/Botanique/Xerula_australis/Xerula_australis.xlsx
+++ b/biology/Botanique/Xerula_australis/Xerula_australis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xerula australis est une espèce de champignons basidiomycètes de la famille des Physalacriaceae
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chapeau fait de 5 à 8 cm de diamètre et est de couleur brunâtre. Il a une surface humide, un peu collante, avec des stries sur le bord. Les lamelles sont adnées (attachées à la tige), de couleur blanchâtre, devenant beige clair à maturité parfois avec une pointe de rose chez les vieux spécimens.
 Le pied blanc fait de 8 à 11 cm de haut sur 0,7 à 1,0 cm de diamètre et est recouvert de petites particules (furfuracé) ou des petits poils (tomenteux). Meurtri, il devient gris-beige. À l'instar des autres espèces de Xerula, X. australis a un mycélium  rhizomorphe qui s'étend dans le sol, habituellement sur les bois pourris situés sous le pied. L'impression des spores est blanche.
@@ -543,7 +557,9 @@
           <t>Caractéristiques microscopiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les spores sont ellipsoïdes, lisses et hyalines, avec des dimensions allant de 8 à 12 μm.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Xerula australis pousse souvent seul ou en petits groupes sur les sols sablonneux du sud de l'Australie. Smith (2005) note que, dans les monts Bunya, dans le Sud-Est du Queensland, X. australis peut pousser en plus grands groupes sur les racines mortes des forêts tropicales, mais aussi dans les bois et forêts d'eucalyptus.
 </t>
